--- a/Analista/Planinhas Execel/Analizador.xlsx
+++ b/Analista/Planinhas Execel/Analizador.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">RODADA</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">FLOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIVER</t>
   </si>
 </sst>
 </file>
@@ -170,10 +176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -334,6 +340,256 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">SUM(B5:F5)+G4</f>
+        <v>240</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">(B5*100)/(B5+G5)</f>
+        <v>11.1111111111111</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">(C5*100)/(C5+G5)</f>
+        <v>20</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">(D5*100)/(D5+G5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">(E5*100)/(E5+G5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">(F5*100)/(F5+G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">SUM(B6:F6)+G5</f>
+        <v>390</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">(B6*100)/(B6+G6)</f>
+        <v>7.14285714285714</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">(C6*100)/(C6+G6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">(D6*100)/(D6+G6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">(E6*100)/(E6+G6)</f>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">(F6*100)/(F6+G6)</f>
+        <v>13.3333333333333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">SUM(B7:F7)+G6</f>
+        <v>840</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">(B7*100)/(B7+G7)</f>
+        <v>19.2307692307692</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">(C7*100)/(C7+G7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">(D7*100)/(D7+G7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">(E7*100)/(E7+G7)</f>
+        <v>10.6382978723404</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">(F7*100)/(F7+G7)</f>
+        <v>15.1515151515152</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">SUM(B8:F8)+G7</f>
+        <v>990</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">(B8*100)/(B8+G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">(C8*100)/(C8+G8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">(D8*100)/(D8+G8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">(E8*100)/(E8+G8)</f>
+        <v>9.1743119266055</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">(F8*100)/(F8+G8)</f>
+        <v>4.80769230769231</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">SUM(B9:F9)+G8</f>
+        <v>1390</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">(B9*100)/(B9+G9)</f>
+        <v>12.5786163522013</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">(C9*100)/(C9+G9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">(D9*100)/(D9+G9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">(E9*100)/(E9+G9)</f>
+        <v>3.47222222222222</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">(F9*100)/(F9+G9)</f>
+        <v>9.74025974025974</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">SUM(B10:F10)+G9</f>
+        <v>1440</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">(B10*100)/(B10+G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">(C10*100)/(C10+G10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">(D10*100)/(D10+G10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">(E10*100)/(E10+G10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">(F10*100)/(F10+G10)</f>
+        <v>3.35570469798658</v>
       </c>
     </row>
   </sheetData>

--- a/Analista/Planinhas Execel/Analizador.xlsx
+++ b/Analista/Planinhas Execel/Analizador.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t xml:space="preserve">RODADA</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">DELANO</t>
   </si>
   <si>
-    <t xml:space="preserve">NELANO</t>
-  </si>
-  <si>
     <t xml:space="preserve">POTE</t>
   </si>
   <si>
@@ -49,19 +46,16 @@
     <t xml:space="preserve">DILER</t>
   </si>
   <si>
-    <t xml:space="preserve">UTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UOFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTAO</t>
-  </si>
-  <si>
     <t xml:space="preserve">SB</t>
   </si>
   <si>
     <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTG+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTN</t>
   </si>
   <si>
     <t xml:space="preserve">CILCANO</t>
@@ -91,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,12 +103,30 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE57070"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2BD0D2"/>
+        <bgColor rgb="FF00CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA975DD"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,13 +163,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -168,6 +193,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFA975DD"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFE57070"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF2BD0D2"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -179,7 +264,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -203,14 +288,11 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -219,22 +301,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>1</v>
@@ -243,227 +325,181 @@
         <v>2</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>20</v>
+        <v>300</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1200</v>
       </c>
       <c r="G3" s="0" t="n">
-        <f aca="false">SUM(B3:F3)</f>
-        <v>110</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">(B3*100)/(B3+G3)</f>
-        <v>15.3846153846154</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <f aca="false">(C3*100)/(C3+G3)</f>
-        <v>21.4285714285714</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <f aca="false">(D3*100)/(D3+G3)</f>
-        <v>21.4285714285714</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">(E3*100)/(E3+G3)</f>
-        <v>8.33333333333333</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <f aca="false">(F3*100)/(F3+G3)</f>
-        <v>15.3846153846154</v>
+        <f aca="false">SUM(B3:E3)</f>
+        <v>2850</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">(D3*100)/(G2+B3+C3+D3)</f>
+        <v>72.7272727272727</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <f aca="false">(E3*100)/(G3)</f>
+        <v>42.1052631578947</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
+      <c r="B4" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1200</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <f aca="false">SUM(B4:F4)+G3</f>
-        <v>150</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">(B4*100)/(B4+G4)</f>
-        <v>6.25</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">(C4*100)/(C4+G4)</f>
-        <v>0</v>
+        <f aca="false">SUM(B4:E4)+G3</f>
+        <v>5250</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">(B4*100)/(G3+B4)</f>
+        <v>29.6296296296296</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">(C4*100)/(G3+B4+C4)</f>
+        <v>22.8571428571429</v>
       </c>
       <c r="J4" s="0" t="n">
-        <f aca="false">(D4*100)/(D4+G4)</f>
+        <f aca="false">(D4*100)/(G3+B4+C4+D4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">(E4*100)/(E4+G4)</f>
-        <v>11.7647058823529</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <f aca="false">(F4*100)/(F4+G4)</f>
-        <v>6.25</v>
+        <f aca="false">(E4*100)/(G3+B4+C4+D4+E4)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>10000</v>
       </c>
       <c r="G5" s="0" t="n">
-        <f aca="false">SUM(B5:F5)+G4</f>
-        <v>240</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">(B5*100)/(B5+G5)</f>
-        <v>11.1111111111111</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">(C5*100)/(C5+G5)</f>
-        <v>20</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">(D5*100)/(D5+G5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">(E5*100)/(E5+G5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <f aca="false">(F5*100)/(F5+G5)</f>
-        <v>0</v>
+        <f aca="false">SUM(B5:E5)+G4</f>
+        <v>24250</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">(B5*100)/(G4+B5)</f>
+        <v>36.3636363636364</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">(C5*100)/(G4+B5+C5)</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <f aca="false">(D5*100)/(G4+B5+C5+D5)</f>
+        <v>21.0526315789474</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">(E5*100)/(G4+B5+C5+D5+E5)</f>
+        <v>41.2371134020619</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>60</v>
+      <c r="B6" s="3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <f aca="false">SUM(B6:F6)+G5</f>
-        <v>390</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">(B6*100)/(B6+G6)</f>
-        <v>7.14285714285714</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">(C6*100)/(C6+G6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">(D6*100)/(D6+G6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">(E6*100)/(E6+G6)</f>
-        <v>13.3333333333333</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <f aca="false">(F6*100)/(F6+G6)</f>
-        <v>13.3333333333333</v>
+        <f aca="false">SUM(B6:E6)+G5</f>
+        <v>38250</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <f aca="false">(B6*100)/(G5+B6)</f>
+        <v>22.4</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">(C6*100)/(G5+B6+C6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <f aca="false">(D6*100)/(G5+B6+C6+D6)</f>
+        <v>18.3006535947712</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <f aca="false">(E6*100)/(G5+B6+C6+D6+E6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>150</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>18800</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>18800</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>18800</v>
       </c>
       <c r="G7" s="0" t="n">
-        <f aca="false">SUM(B7:F7)+G6</f>
-        <v>840</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">(B7*100)/(B7+G7)</f>
-        <v>19.2307692307692</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">(C7*100)/(C7+G7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">(D7*100)/(D7+G7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">(E7*100)/(E7+G7)</f>
-        <v>10.6382978723404</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <f aca="false">(F7*100)/(F7+G7)</f>
-        <v>15.1515151515152</v>
+        <f aca="false">SUM(B7:E7)+G6</f>
+        <v>94650</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">(B7*100)/(G6+B7)</f>
+        <v>32.9535495179667</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">(C7*100)/(G6+B7+C7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <f aca="false">(D7*100)/(G6+B7+C7+D7)</f>
+        <v>24.7857613711272</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <f aca="false">(E7*100)/(G6+B7+C7+D7+E7)</f>
+        <v>19.8626518753302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,42 +513,35 @@
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">SUM(B8:F8)+G7</f>
-        <v>990</v>
+        <v>94750</v>
       </c>
       <c r="H8" s="0" t="n">
-        <f aca="false">(B8*100)/(B8+G8)</f>
+        <f aca="false">(B8*100)/(G7+B8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <f aca="false">(C8*100)/(C8+G8)</f>
+        <f aca="false">(C8*100)/(G7+B8+C8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <f aca="false">(D8*100)/(D8+G8)</f>
+        <f aca="false">(D8*100)/(G7+B8+C8+D8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
-        <f aca="false">(E8*100)/(E8+G8)</f>
-        <v>9.1743119266055</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <f aca="false">(F8*100)/(F8+G8)</f>
-        <v>4.80769230769231</v>
+        <f aca="false">(E8*100)/(G7+B8+C8+D8+E8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -521,34 +550,27 @@
         <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">SUM(B9:F9)+G8</f>
-        <v>1390</v>
+        <v>95000</v>
       </c>
       <c r="H9" s="0" t="n">
-        <f aca="false">(B9*100)/(B9+G9)</f>
-        <v>12.5786163522013</v>
+        <f aca="false">(B9*100)/(G8+B9)</f>
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <f aca="false">(C9*100)/(C9+G9)</f>
+        <f aca="false">(C9*100)/(G8+B9+C9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="0" t="n">
-        <f aca="false">(D9*100)/(D9+G9)</f>
+        <f aca="false">(D9*100)/(G8+B9+C9+D9)</f>
         <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">(E9*100)/(E9+G9)</f>
-        <v>3.47222222222222</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <f aca="false">(F9*100)/(F9+G9)</f>
-        <v>9.74025974025974</v>
+        <f aca="false">(E9*100)/(G8+B9+C9+D9+E9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,32 +586,25 @@
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="G10" s="0" t="n">
         <f aca="false">SUM(B10:F10)+G9</f>
-        <v>1440</v>
+        <v>95000</v>
       </c>
       <c r="H10" s="0" t="n">
-        <f aca="false">(B10*100)/(B10+G10)</f>
+        <f aca="false">(B10*100)/(G9+B10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
-        <f aca="false">(C10*100)/(C10+G10)</f>
+        <f aca="false">(C10*100)/(G9+B10+C10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="0" t="n">
-        <f aca="false">(D10*100)/(D10+G10)</f>
+        <f aca="false">(D10*100)/(G9+B10+C10+D10)</f>
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <f aca="false">(E10*100)/(E10+G10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <f aca="false">(F10*100)/(F10+G10)</f>
-        <v>3.35570469798658</v>
+        <f aca="false">(E10*100)/(G9+B10+C10+D10+E10)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
